--- a/freeloglog.xlsx
+++ b/freeloglog.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/FREELOG/FREELOG项目跟踪/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/propaganda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{11DDDAC5-4C4D-2346-9077-83F84706BA64}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8120000_{D8F69DD4-7B0B-8246-9973-45033DE12991}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16440" activeTab="3" xr2:uid="{BF65166A-FF8C-1F49-902A-D1AE7173A280}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{BF65166A-FF8C-1F49-902A-D1AE7173A280}"/>
   </bookViews>
   <sheets>
     <sheet name="框架" sheetId="1" r:id="rId1"/>
     <sheet name="后续" sheetId="2" r:id="rId2"/>
     <sheet name="交互_UI" sheetId="3" r:id="rId3"/>
-    <sheet name="前端" sheetId="4" r:id="rId4"/>
+    <sheet name="交互修改" sheetId="5" r:id="rId4"/>
+    <sheet name="前端" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
   <si>
     <t>2018.08.02</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -615,13 +617,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>客户端签约 - UI评审 - 第一次评审</t>
-    <rPh sb="0" eb="1">
-      <t>ke hu duan qian yuejiao hu ping shenjia hu pin eg shenke hu duan</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>展示节点</t>
     <rPh sb="0" eb="2">
       <t>zhan shi jie dian</t>
@@ -689,12 +684,119 @@
   <si>
     <t>？</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：“活跃合约”切换方式，希望切换能够更明显。</t>
+    <rPh sb="0" eb="2">
+      <t>you hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：“默认合约”改为“活跃合约”。</t>
+    <rPh sb="0" eb="1">
+      <t>you hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端合约签署 - UI评审 - 第一次评审</t>
+    <rPh sb="0" eb="1">
+      <t>ke hu duan qian yuejiao hu ping shenjia hu pin eg shenke hu duan</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端签约 - 交互、UI确认 - 第1版</t>
+    <rPh sb="0" eb="2">
+      <t>ke hu duan qian yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端合约管理 - 交互评审 - 第一次评审</t>
+    <rPh sb="0" eb="2">
+      <t>ke hu duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R - 资源市场</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源市场中包含：
+全部资源列表、收藏夹、预授权组合
+资源管理中包含：
+上传的资源（指该资源已经包含进资源市场）
+待添加授权资源（指该资源未保存授权方案，未包含进资源市场）</t>
+    <rPh sb="0" eb="2">
+      <t>zi yuan shi chang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 当前的页面样式管理和节点资源中的PB资源上线功能有冲突，此处修改为去掉页面样式浏览，将其整合进节点资源管理当中。同一时刻之多允许一个PB资源上线。</t>
+    <rPh sb="0" eb="76">
+      <t>ye mian yang shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 直观显示资源类型，节点资源默认按时间排序，增加按资源类型排序功能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 添加节点资源允许添加资源市场中三个列表及资源作者管理两个列表中的资源。
+特别说明：如果此处用户选择资源管理列表中待添加授权资源列表，则引导用户完成授权添加并将资源上架到资源市场，否则禁止添加至节点资源列表。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 视觉细节修改。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台 - 节点管理</t>
+    <rPh sb="0" eb="2">
+      <t>kong zhi tai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N - 合约管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点合约管理分三类：
+作为乙方待签署的合约
+作为乙方已签署的合约
+作为甲方已签署的合约
+由于节点作为甲方的合约数量非常大，是否不单独列出，而采用统计的方式展示。否则需要增强的搜索功能。</t>
+    <rPh sb="0" eb="2">
+      <t>jie dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -929,7 +1031,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,88 +1068,118 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1063,6 +1195,184 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FE4E3F-1356-7A47-B6E8-B20794B0A1E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="3340100"/>
+          <a:ext cx="184731" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE73A6F-10AC-3049-81CF-3220A3039E89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="3225800"/>
+          <a:ext cx="184731" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1358900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F53914-81CA-3E4C-824E-0A322E6D86B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11252200" y="1968500"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1364,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CD3132-E719-624F-8ACA-98DCA8F4002A}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1428,7 +1738,7 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="45" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1445,7 +1755,7 @@
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" ht="64">
       <c r="A6" s="11" t="s">
@@ -1463,7 +1773,7 @@
       <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
@@ -1471,7 +1781,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1482,7 +1792,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -1490,7 +1800,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="32">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1517,7 +1827,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="64">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1531,7 +1841,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1550,7 +1860,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="48">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1572,7 +1882,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="32">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1599,7 +1909,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="64">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1621,35 +1931,35 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="46" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
@@ -1658,13 +1968,13 @@
       <c r="B27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
@@ -1673,16 +1983,16 @@
       <c r="B29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="46"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="46"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
@@ -1690,7 +2000,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -1701,7 +2011,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="48">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -1712,31 +2022,37 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="32">
-      <c r="A36" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="96">
       <c r="A37" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="9" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="112">
+      <c r="A38" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1753,78 +2069,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75278330-68E0-EA4F-8D7D-0E5D60056DDF}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="26"/>
-    <col min="5" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="1" width="32.33203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="24"/>
+    <col min="5" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <v>1</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="64">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1835,44 +2151,44 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="26">
+      <c r="D9" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1880,7 +2196,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1888,18 +2204,18 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1910,12 +2226,12 @@
       <c r="A19" s="11"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="11"/>
@@ -1924,12 +2240,12 @@
       <c r="A23" s="11"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -1938,22 +2254,22 @@
       <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -1962,7 +2278,7 @@
       <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -1974,31 +2290,51 @@
       <c r="A31" s="11"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B48" s="10"/>
     </row>
     <row r="49" spans="1:3" ht="33" thickBot="1">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="29" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2013,29 +2349,29 @@
     </row>
     <row r="53" spans="1:3" ht="17" thickBot="1"/>
     <row r="54" spans="1:3">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="35"/>
+      <c r="C55" s="33"/>
     </row>
     <row r="56" spans="1:3" ht="33" thickBot="1">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="36" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2047,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF22D038-AB75-6841-8D50-6BBAA45346BC}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2058,16 +2394,20 @@
     <col min="1" max="1" width="20.83203125" style="11" customWidth="1"/>
     <col min="2" max="3" width="40.83203125" style="9" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="23"/>
+    <col min="5" max="5" width="20.83203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" style="41" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
@@ -2081,7 +2421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32">
+    <row r="3" spans="1:6" ht="32">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -2092,36 +2432,96 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32">
+    <row r="4" spans="1:6" ht="32">
       <c r="C4" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32">
+    <row r="5" spans="1:6" ht="32">
       <c r="C5" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32">
+    <row r="6" spans="1:6" ht="32">
       <c r="C6" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" ht="17" thickBot="1">
       <c r="C7" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33" thickBot="1">
+      <c r="A11" s="5"/>
+      <c r="C11" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2130,11 +2530,76 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A30044C-9B7B-0A4C-A182-B00CB1209104}">
+  <dimension ref="A2:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="60.83203125" style="43" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" spans="1:3" ht="48">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="32">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="80">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BBFE5F-C288-8440-98E9-E93E8B8EEAB4}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2144,81 +2609,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="37"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="39"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="39" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="37" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="39" t="s">
+      <c r="B3" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
+      <c r="B4" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="39" t="s">
+      <c r="B5" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="39" t="s">
+      <c r="B6" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="39" t="s">
+      <c r="B7" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="39" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>102</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/freeloglog.xlsx
+++ b/freeloglog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/propaganda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8120000_{D8F69DD4-7B0B-8246-9973-45033DE12991}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8120000_{E5701100-DB7D-E440-9EB4-BAAE78CC3E8B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{BF65166A-FF8C-1F49-902A-D1AE7173A280}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{BF65166A-FF8C-1F49-902A-D1AE7173A280}"/>
   </bookViews>
   <sheets>
     <sheet name="框架" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
   <si>
     <t>2018.08.02</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -711,13 +711,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>客户端签约 - 交互、UI确认 - 第1版</t>
-    <rPh sb="0" eb="2">
-      <t>ke hu duan qian yue</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>客户端合约管理 - 交互评审 - 第一次评审</t>
     <rPh sb="0" eb="2">
       <t>ke hu duan</t>
@@ -779,11 +772,117 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>节点合约管理分三类：
-作为乙方待签署的合约
+    <t>节点合约管理分两类：
 作为乙方已签署的合约
 作为甲方已签署的合约
 由于节点作为甲方的合约数量非常大，是否不单独列出，而采用统计的方式展示。否则需要增强的搜索功能。</t>
+    <rPh sb="0" eb="2">
+      <t>jie dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源管理/合约管理</t>
+    <rPh sb="0" eb="2">
+      <t>zi yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N - 节点资源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N - 资源标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论</t>
+    <rPh sb="0" eb="2">
+      <t>jie llun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 预览功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起</t>
+    <rPh sb="0" eb="2">
+      <t>gua qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>✅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 未签署的节点合约统一并入资源管理，即节点合约管理仅包含其作为乙方的合约和作为甲方的合约。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端合约管理 - 交互、UI确认 - 第1版</t>
+    <rPh sb="0" eb="2">
+      <t>ke hu duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端合约签署 - 交互、UI确认 - 第1版</t>
+    <rPh sb="0" eb="2">
+      <t>ke hu duan qian yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该分类可行，但注意区分不同部分是否是并列关系。如上传的资源和待添加授权资源原则上不能并列。</t>
+    <rPh sb="0" eb="1">
+      <t>gai fang</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为甲方的合约单独列出是必要功能，同时还需要有增强的搜索及操作功能。</t>
+    <rPh sb="0" eb="2">
+      <t>zuo wei</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>归为可用性问题，挂起</t>
+    <rPh sb="0" eb="55">
+      <t>gui wei</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>gua qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归为节点标签问题，挂起</t>
+    <rPh sb="0" eb="73">
+      <t>gui wei</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>gua qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前节点资源下线后，之前签约的用户也无法浏览到签约过的资源。</t>
+    <rPh sb="0" eb="2">
+      <t>dang qian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点资源标签系统。</t>
     <rPh sb="0" eb="2">
       <t>jie dian</t>
     </rPh>
@@ -843,14 +942,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="9" tint="-0.499984740745262"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -921,6 +1012,16 @@
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1031,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1068,13 +1169,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1083,37 +1184,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1122,7 +1223,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,16 +1232,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1165,10 +1266,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1177,7 +1275,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1672,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CD3132-E719-624F-8ACA-98DCA8F4002A}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F44" sqref="A44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1948,7 +2058,7 @@
       <c r="A25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="45" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1959,7 +2069,7 @@
       <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="46"/>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
@@ -1968,13 +2078,13 @@
       <c r="B27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="46"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="46"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
@@ -1983,7 +2093,7 @@
       <c r="B29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="46"/>
+      <c r="F29" s="45"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="12" t="s">
@@ -1992,7 +2102,7 @@
       <c r="B30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="46"/>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
@@ -2031,12 +2141,12 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="96">
@@ -2044,16 +2154,62 @@
         <v>21</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="112">
+        <v>110</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="96">
+      <c r="A39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="F39" s="51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="48">
+      <c r="C41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="52"/>
+    </row>
+    <row r="43" spans="1:6" ht="32">
+      <c r="C43" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2383,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF22D038-AB75-6841-8D50-6BBAA45346BC}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2498,7 +2654,7 @@
         <v>105</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2515,12 +2671,44 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="17" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2531,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A30044C-9B7B-0A4C-A182-B00CB1209104}">
-  <dimension ref="A2:I7"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2542,49 +2730,83 @@
     <col min="1" max="1" width="20.83203125" style="43" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" style="43" customWidth="1"/>
     <col min="3" max="3" width="60.83203125" style="43" customWidth="1"/>
-    <col min="4" max="9" width="10.83203125" style="43"/>
+    <col min="4" max="4" width="20.83203125" style="43" customWidth="1"/>
+    <col min="5" max="9" width="10.83203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="47"/>
-    </row>
-    <row r="4" spans="1:3" ht="48">
+        <v>108</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
-      <c r="C4" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="32">
+      <c r="C4" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
-      <c r="C5" s="47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="80">
+      <c r="C5" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="80">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="48" t="s">
-        <v>116</v>
+      <c r="C7" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32">
+      <c r="C8" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/freeloglog.xlsx
+++ b/freeloglog.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/propaganda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8120000_{E5701100-DB7D-E440-9EB4-BAAE78CC3E8B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF61EB09-D335-EE4E-8118-EABA00C08622}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{BF65166A-FF8C-1F49-902A-D1AE7173A280}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{BF65166A-FF8C-1F49-902A-D1AE7173A280}"/>
   </bookViews>
   <sheets>
     <sheet name="框架" sheetId="1" r:id="rId1"/>
-    <sheet name="后续" sheetId="2" r:id="rId2"/>
+    <sheet name="后续（暂不用看）" sheetId="2" r:id="rId2"/>
     <sheet name="交互_UI" sheetId="3" r:id="rId3"/>
     <sheet name="交互修改" sheetId="5" r:id="rId4"/>
     <sheet name="前端" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -856,21 +855,15 @@
   </si>
   <si>
     <t>归为可用性问题，挂起</t>
-    <rPh sb="0" eb="55">
-      <t>gui wei</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>gua qi</t>
+    <rPh sb="0" eb="10">
+      <t>gui weigua qi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>归为节点标签问题，挂起</t>
-    <rPh sb="0" eb="73">
-      <t>gui wei</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>gua qi</t>
+    <rPh sb="0" eb="11">
+      <t>gui weigua qi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1266,29 +1259,29 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1784,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CD3132-E719-624F-8ACA-98DCA8F4002A}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="F44" sqref="A44:F44"/>
     </sheetView>
   </sheetViews>
@@ -1848,7 +1841,7 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="52" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1865,7 +1858,7 @@
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6" ht="64">
       <c r="A6" s="11" t="s">
@@ -1883,7 +1876,7 @@
       <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="45"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
@@ -2058,7 +2051,7 @@
       <c r="A25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="52" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2069,7 +2062,7 @@
       <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="52"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
@@ -2078,13 +2071,13 @@
       <c r="B27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="45"/>
+      <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
@@ -2093,7 +2086,7 @@
       <c r="B29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="12" t="s">
@@ -2102,7 +2095,7 @@
       <c r="B30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="52"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
@@ -2156,7 +2149,7 @@
       <c r="B37" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2172,7 +2165,7 @@
       <c r="B39" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2185,7 +2178,7 @@
       <c r="C41" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="51" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2193,13 +2186,13 @@
       <c r="A42" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="52"/>
+      <c r="F42" s="51"/>
     </row>
     <row r="43" spans="1:6" ht="32">
       <c r="C43" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="51" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2225,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75278330-68E0-EA4F-8D7D-0E5D60056DDF}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2743,10 +2736,10 @@
       <c r="A3" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>119</v>
       </c>
       <c r="D3" s="43" t="s">
@@ -2756,7 +2749,7 @@
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="43" t="s">
@@ -2766,7 +2759,7 @@
     <row r="5" spans="1:4" ht="32">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>113</v>
       </c>
       <c r="D5" s="44" t="s">
@@ -2776,7 +2769,7 @@
     <row r="6" spans="1:4" ht="80">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="44" t="s">
@@ -2786,7 +2779,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>115</v>
       </c>
       <c r="D7" s="44" t="s">
@@ -2805,7 +2798,7 @@
       <c r="C9" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>124</v>
       </c>
     </row>

--- a/freeloglog.xlsx
+++ b/freeloglog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/propaganda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF61EB09-D335-EE4E-8118-EABA00C08622}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{98C7C1AF-03F4-DB46-A45D-F43416313769}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{BF65166A-FF8C-1F49-902A-D1AE7173A280}"/>
   </bookViews>
@@ -1125,7 +1125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1208,12 +1208,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1841,7 +1835,7 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="50" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1858,7 +1852,7 @@
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6" ht="64">
       <c r="A6" s="11" t="s">
@@ -1876,7 +1870,7 @@
       <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="52"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
@@ -2051,7 +2045,7 @@
       <c r="A25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="50" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2062,7 +2056,7 @@
       <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="50"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
@@ -2071,13 +2065,13 @@
       <c r="B27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="52"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="52"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
@@ -2086,7 +2080,7 @@
       <c r="B29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="52"/>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="12" t="s">
@@ -2095,7 +2089,7 @@
       <c r="B30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="52"/>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
@@ -2149,7 +2143,7 @@
       <c r="B37" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="48" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2165,7 +2159,7 @@
       <c r="B39" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="48" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2178,7 +2172,7 @@
       <c r="C41" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="49" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2186,13 +2180,13 @@
       <c r="A42" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="51"/>
+      <c r="F42" s="49"/>
     </row>
     <row r="43" spans="1:6" ht="32">
       <c r="C43" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="F43" s="49" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2218,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75278330-68E0-EA4F-8D7D-0E5D60056DDF}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2474,16 +2468,16 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="10"/>
-    </row>
-    <row r="49" spans="1:3" ht="33" thickBot="1">
-      <c r="A49" s="28" t="s">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" ht="32">
+      <c r="A49" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2498,11 +2492,11 @@
     </row>
     <row r="53" spans="1:3" ht="17" thickBot="1"/>
     <row r="54" spans="1:3">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="26" t="s">
@@ -2511,16 +2505,16 @@
       <c r="B55" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="33"/>
+      <c r="C55" s="31"/>
     </row>
     <row r="56" spans="1:3" ht="33" thickBot="1">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="34" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2543,8 +2537,8 @@
     <col min="1" max="1" width="20.83203125" style="11" customWidth="1"/>
     <col min="2" max="3" width="40.83203125" style="9" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" style="39" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
@@ -2553,8 +2547,8 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
@@ -2720,85 +2714,85 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="43" customWidth="1"/>
-    <col min="5" max="9" width="10.83203125" style="43"/>
+    <col min="1" max="1" width="20.83203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="60.83203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="41" customWidth="1"/>
+    <col min="5" max="9" width="10.83203125" style="41"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="41" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="42" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="80">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="42" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="46" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="42" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="42" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="47" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2824,76 +2818,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>102</v>
       </c>
     </row>

--- a/freeloglog.xlsx
+++ b/freeloglog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/propaganda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{98C7C1AF-03F4-DB46-A45D-F43416313769}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{841BD5C6-81B4-F241-98E1-1C54E19BB343}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{BF65166A-FF8C-1F49-902A-D1AE7173A280}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{BF65166A-FF8C-1F49-902A-D1AE7173A280}"/>
   </bookViews>
   <sheets>
     <sheet name="框架" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="交互_UI" sheetId="3" r:id="rId3"/>
     <sheet name="交互修改" sheetId="5" r:id="rId4"/>
     <sheet name="前端" sheetId="4" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="162">
   <si>
     <t>2018.08.02</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -574,13 +575,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>客户端签约 - 交互评审 - 第一次评审</t>
-    <rPh sb="0" eb="20">
-      <t>ke hu duanjiao hu ping shenjia hu pin eg shenke hu duan</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>修改：暂停中及执行中说法不准确，去掉该说法，通过图形方式表达。</t>
     <rPh sb="0" eb="31">
       <t>xiu gaizan ting zhong</t>
@@ -854,30 +848,195 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>归为可用性问题，挂起</t>
+    <t>当前节点资源下线后，之前签约的用户也无法浏览到签约过的资源。</t>
+    <rPh sb="0" eb="2">
+      <t>dang qian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点资源标签系统。</t>
+    <rPh sb="0" eb="2">
+      <t>jie dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNC - 合约事件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案</t>
+    <rPh sb="0" eb="2">
+      <t>fang an</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归为可用性问题
+挂起</t>
+    <rPh sb="0" eb="9">
+      <t>gui weigua qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归为节点标签问题
+挂起</t>
     <rPh sb="0" eb="10">
       <t>gui weigua qi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>归为节点标签问题，挂起</t>
-    <rPh sb="0" eb="11">
+    <t>控制台 - 资源管理</t>
+    <rPh sb="0" eb="2">
+      <t>kong zhi tai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建资源</t>
+    <rPh sb="0" eb="2">
+      <t>chuang jian zi yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 创建资源的逻辑应该是先选择资源类型，而后上传资源，该逻辑要在设计上体现出来。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 创建资源后完成并退出，资源进入“待添加授权资源”；创建资源后完成并添加授权，添加成功后，资源进入“全部资源列表”和“上传的资源”两列表当中。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 交互细节修改。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产权悖论</t>
+    <rPh sb="0" eb="2">
+      <t>chan quan bei lun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标群体</t>
+    <rPh sb="0" eb="2">
+      <t>mu biao qun ti</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归为保证金账户问题
+挂起</t>
+    <rPh sb="0" eb="12">
       <t>gui weigua qi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当前节点资源下线后，之前签约的用户也无法浏览到签约过的资源。</t>
-    <rPh sb="0" eb="2">
-      <t>dang qian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点资源标签系统。</t>
-    <rPh sb="0" eb="2">
-      <t>jie dian</t>
+    <t>保证金账户</t>
+    <rPh sb="0" eb="2">
+      <t>bao zheng jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 添加资源描述和meta信息部分细节需要优化。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不考虑</t>
+    <rPh sb="0" eb="2">
+      <t>bu kao lü</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端合约签署 - 交互评审 - 第一次评审</t>
+    <rPh sb="0" eb="100">
+      <t>ke hu duanjiao hu ping shenjia hu pin eg shenke hu duan</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端合约管理 - UI评审 - 第二次评审</t>
+    <rPh sb="0" eb="5">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：客户端presentable描述由节点提供，并且不采用富文本编辑。</t>
+    <rPh sb="0" eb="2">
+      <t>xiu gai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：客户端账户ID仅在创建后才生成。</t>
+    <rPh sb="0" eb="2">
+      <t>xiu gai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：策略及合约不建议用当前方式描述，希望有更明显的方式表达合约生效后的状态，同时希望在签约后保存当前策略名称。</t>
+    <rPh sb="0" eb="2">
+      <t>you hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：客户端布局改为两边留白的布局方案。</t>
+    <rPh sb="0" eb="2">
+      <t>you hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：客户端签约后合同并非立即执行，该过程为非实时性的，希望在UI上能够体现出来。</t>
+    <rPh sb="0" eb="2">
+      <t>you hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增：UI上体现声明区的三种声明：合约保证金、表达式和用户自定义事件。</t>
+    <rPh sb="0" eb="2">
+      <t>xin zeng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互/UI工程项目</t>
+    <rPh sb="0" eb="2">
+      <t>jiao hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台符号语言</t>
+    <rPh sb="0" eb="2">
+      <t>ping tai fu hao yu yan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1769,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CD3132-E719-624F-8ACA-98DCA8F4002A}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F44" sqref="A44:F44"/>
+    <sheetView topLeftCell="A39" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2107,7 +2266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="48">
+    <row r="33" spans="1:8" ht="48">
       <c r="A33" s="12" t="s">
         <v>21</v>
       </c>
@@ -2118,7 +2277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:8">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -2126,77 +2285,109 @@
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="96">
+    <row r="37" spans="1:8" ht="96">
       <c r="A37" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="96">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="96">
       <c r="A39" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39" s="48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="48">
+      <c r="C41" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="17" t="s">
+      <c r="F41" s="49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="17" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="48">
-      <c r="C41" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="49" t="s">
+      <c r="F42" s="49"/>
+    </row>
+    <row r="43" spans="1:8" ht="32">
+      <c r="C43" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="49"/>
-    </row>
-    <row r="43" spans="1:6" ht="32">
-      <c r="C43" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="F43" s="49" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="32">
+      <c r="A47" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2210,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75278330-68E0-EA4F-8D7D-0E5D60056DDF}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2518,6 +2709,16 @@
         <v>80</v>
       </c>
     </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2526,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF22D038-AB75-6841-8D50-6BBAA45346BC}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2569,30 +2770,30 @@
         <v>46</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32">
       <c r="C4" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32">
       <c r="C5" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32">
       <c r="C6" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1">
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2620,16 +2821,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" thickBot="1">
       <c r="A11" s="5"/>
       <c r="C11" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2638,10 +2839,10 @@
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2660,16 +2861,13 @@
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2678,10 +2876,10 @@
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2697,6 +2895,48 @@
       <c r="D16" s="7" t="s">
         <v>84</v>
       </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32">
+      <c r="C18" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="48">
+      <c r="C19" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32">
+      <c r="C21" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="33" thickBot="1">
+      <c r="C22" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2706,10 +2946,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A30044C-9B7B-0A4C-A182-B00CB1209104}">
-  <dimension ref="A2:I9"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A6" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2721,6 +2961,12 @@
     <col min="5" max="9" width="10.83203125" style="41"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
     <row r="2" spans="1:4">
       <c r="A2" s="40" t="s">
         <v>81</v>
@@ -2728,73 +2974,129 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="80">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32">
       <c r="C8" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" thickBot="1">
       <c r="C9" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="47" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="42"/>
+    </row>
+    <row r="12" spans="1:4" ht="32">
+      <c r="C12" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>124</v>
       </c>
+    </row>
+    <row r="13" spans="1:4" ht="48">
+      <c r="C13" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" thickBot="1">
+      <c r="C15" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2819,45 +3121,45 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>61</v>
@@ -2865,10 +3167,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2877,18 +3179,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>99</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>101</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2896,4 +3198,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151E24D2-8EB1-C34A-8737-74686D391266}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/freeloglog.xlsx
+++ b/freeloglog.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/propaganda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{841BD5C6-81B4-F241-98E1-1C54E19BB343}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{690FF972-C9AD-844D-90B2-A277734F1A96}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{BF65166A-FF8C-1F49-902A-D1AE7173A280}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="2" xr2:uid="{BF65166A-FF8C-1F49-902A-D1AE7173A280}"/>
   </bookViews>
   <sheets>
     <sheet name="框架" sheetId="1" r:id="rId1"/>
-    <sheet name="后续（暂不用看）" sheetId="2" r:id="rId2"/>
+    <sheet name="后续" sheetId="2" r:id="rId2"/>
     <sheet name="交互_UI" sheetId="3" r:id="rId3"/>
-    <sheet name="交互修改" sheetId="5" r:id="rId4"/>
+    <sheet name="前期设计交互修改" sheetId="5" r:id="rId4"/>
     <sheet name="前端" sheetId="4" r:id="rId5"/>
     <sheet name="工作表1" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="178">
   <si>
     <t>2018.08.02</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -972,7 +972,7 @@
   </si>
   <si>
     <t>客户端合约签署 - 交互评审 - 第一次评审</t>
-    <rPh sb="0" eb="100">
+    <rPh sb="0" eb="22">
       <t>ke hu duanjiao hu ping shenjia hu pin eg shenke hu duan</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1037,6 +1037,106 @@
     <t>平台符号语言</t>
     <rPh sb="0" eb="2">
       <t>ping tai fu hao yu yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RN - 资源评价系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对资源市场中的资源，需要资源评价系统，以增加用户对资源的了解程度。</t>
+    <rPh sb="0" eb="2">
+      <t>zhen dui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端合约管理 - 交互、UI确认 - 第2版</t>
+    <rPh sb="0" eb="2">
+      <t>ke hu duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.09.20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <rPh sb="0" eb="2">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端合约管理 - UI测试</t>
+    <rPh sb="0" eb="2">
+      <t>ke hu duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有实现屏幕自适应功能</t>
+    <rPh sb="0" eb="2">
+      <t>mei you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待解决</t>
+    <rPh sb="0" eb="2">
+      <t>dai jie jue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户自定义头像无法上传</t>
+    <rPh sb="0" eb="2">
+      <t>yong hu zi ding yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的资源页面在第n页进入资源详情返回到首页</t>
+    <rPh sb="0" eb="1">
+      <t>wo e de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在资源管理页面点击节点地址没有跳转到相应节点</t>
+    <rPh sb="0" eb="2">
+      <t>zai zi yuan guan li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感受上响应速度偏慢，频发等待时间过长的问题</t>
+    <rPh sb="0" eb="2">
+      <t>gan shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型列表不应与资源和节点公用一个搜索框，后续修改</t>
+    <rPh sb="0" eb="2">
+      <t>zi yuan lei xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创立我的帐户后切换至账户管理，会有短暂的时间显示未创立账户的页面，该情况出现在响应速度慢的时候</t>
+    <rPh sb="0" eb="2">
+      <t>chuang li</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1931,7 +2031,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView topLeftCell="A39" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2401,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75278330-68E0-EA4F-8D7D-0E5D60056DDF}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2719,6 +2819,19 @@
         <v>161</v>
       </c>
     </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="48">
+      <c r="A65" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2727,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF22D038-AB75-6841-8D50-6BBAA45346BC}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2896,7 +3009,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
         <v>151</v>
       </c>
@@ -2907,36 +3020,118 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32">
+    <row r="18" spans="1:6" ht="32">
       <c r="C18" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="48">
+    <row r="19" spans="1:6" ht="48">
       <c r="C19" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="C20" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="32">
+    <row r="21" spans="1:6" ht="32">
       <c r="C21" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="33" thickBot="1">
+    <row r="22" spans="1:6" ht="33" thickBot="1">
       <c r="C22" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
+      <c r="E23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="48">
+      <c r="C27" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="32">
+      <c r="C28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="32">
+      <c r="C29" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="32">
+      <c r="C30" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="32">
+      <c r="C31" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2948,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A30044C-9B7B-0A4C-A182-B00CB1209104}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A4" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3237,5 +3432,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>